--- a/Tidsplan - Estimeret.xlsx
+++ b/Tidsplan - Estimeret.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Dropbox\Documents\Lektier\5. Tech College\10. Svendeprøveforløb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A744D-6BF8-463C-9667-ED4426748BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C786133-5ABB-4FB1-ADB9-A6B6FE94F9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Mandag, 21. marts</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Konklusion</t>
-  </si>
-  <si>
-    <t>Logbog</t>
   </si>
   <si>
     <t>Brugervejledning</t>
@@ -194,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-406]d:\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-406]d:\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -213,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,8 +675,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="7" tint="0.39991454817346722"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="7" tint="0.39991454817346722"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -953,89 +986,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1098,20 +1065,26 @@
     <xf numFmtId="0" fontId="0" fillId="53" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="54" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,13 +1544,13 @@
       <c r="X4" s="72"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="75"/>
+      <c r="AA4" s="76"/>
       <c r="AB4" s="69"/>
       <c r="AC4" s="69"/>
       <c r="AD4" s="72"/>
       <c r="AE4" s="72"/>
       <c r="AF4" s="69"/>
-      <c r="AG4" s="76"/>
+      <c r="AG4" s="77"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
@@ -1607,13 +1580,13 @@
       <c r="X5" s="72"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="75"/>
+      <c r="AA5" s="76"/>
       <c r="AB5" s="69"/>
       <c r="AC5" s="69"/>
       <c r="AD5" s="72"/>
       <c r="AE5" s="72"/>
       <c r="AF5" s="69"/>
-      <c r="AG5" s="76"/>
+      <c r="AG5" s="2"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="64"/>
@@ -1643,13 +1616,13 @@
       <c r="X6" s="72"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="75"/>
+      <c r="AA6" s="76"/>
       <c r="AB6" s="69"/>
       <c r="AC6" s="69"/>
       <c r="AD6" s="72"/>
       <c r="AE6" s="72"/>
       <c r="AF6" s="69"/>
-      <c r="AG6" s="76"/>
+      <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="64"/>
@@ -1658,7 +1631,7 @@
       </c>
       <c r="D7" s="74"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="72"/>
@@ -1692,9 +1665,9 @@
       <c r="C8" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="75"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="72"/>
@@ -1728,7 +1701,7 @@
       <c r="C9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1774,8 +1747,8 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="72"/>
       <c r="Q10" s="72"/>
       <c r="R10" s="1"/>
@@ -1823,90 +1796,90 @@
       <c r="X11" s="72"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="75"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="69"/>
       <c r="AC11" s="69"/>
       <c r="AD11" s="72"/>
       <c r="AE11" s="72"/>
       <c r="AF11" s="69"/>
-      <c r="AG11" s="76"/>
+      <c r="AG11" s="77"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="64"/>
-      <c r="C12" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="76"/>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="31"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="79"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="64"/>
       <c r="C14" s="65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
@@ -1931,13 +1904,13 @@
       <c r="X14" s="72"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="75"/>
+      <c r="AA14" s="78"/>
       <c r="AB14" s="69"/>
       <c r="AC14" s="69"/>
       <c r="AD14" s="72"/>
       <c r="AE14" s="72"/>
       <c r="AF14" s="69"/>
-      <c r="AG14" s="76"/>
+      <c r="AG14" s="2"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
@@ -1945,8 +1918,8 @@
         <v>37</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="72"/>
@@ -1981,8 +1954,8 @@
         <v>38</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="72"/>
@@ -2014,7 +1987,7 @@
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
       <c r="C17" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
@@ -2026,11 +1999,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="78"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="72"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="78"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2050,7 +2023,7 @@
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
       <c r="C18" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
@@ -2066,8 +2039,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="72"/>
       <c r="Q18" s="72"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2086,7 +2059,7 @@
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
       <c r="C19" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
@@ -2110,8 +2083,8 @@
       <c r="W19" s="72"/>
       <c r="X19" s="72"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
       <c r="AB19" s="69"/>
       <c r="AC19" s="69"/>
       <c r="AD19" s="72"/>
@@ -2162,8 +2135,8 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="1"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
@@ -2198,8 +2171,8 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="1"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
@@ -2269,9 +2242,9 @@
         <v>39</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="1"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
@@ -2306,12 +2279,12 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="75"/>
+      <c r="K25" s="81"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2320,12 +2293,12 @@
       <c r="Q25" s="72"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
       <c r="W25" s="72"/>
       <c r="X25" s="72"/>
-      <c r="Y25" s="75"/>
+      <c r="Y25" s="81"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="69"/>
@@ -2383,8 +2356,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2420,8 +2393,8 @@
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="72"/>
@@ -2464,12 +2437,12 @@
       <c r="Q29" s="73"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
-      <c r="Y29" s="77"/>
+      <c r="Y29" s="83"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="70"/>

--- a/Tidsplan - Estimeret.xlsx
+++ b/Tidsplan - Estimeret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C786133-5ABB-4FB1-ADB9-A6B6FE94F9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D0FA7-FFBF-4D3E-90DF-3D26C9BCB97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Forord</t>
   </si>
   <si>
-    <t>Metode- og teknolgivalg</t>
-  </si>
-  <si>
     <t>Estimeret Tidsplan</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Overordnet arkitektur</t>
+  </si>
+  <si>
+    <t>Metode- og teknologivalg</t>
   </si>
 </sst>
 </file>
@@ -1374,14 +1374,14 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1699,7 +1699,7 @@
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="64"/>
       <c r="C9" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="1"/>
@@ -1735,7 +1735,7 @@
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="64"/>
       <c r="C10" s="65" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
@@ -1747,11 +1747,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="76"/>
       <c r="O10" s="76"/>
       <c r="P10" s="72"/>
       <c r="Q10" s="72"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="76"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1771,7 +1770,7 @@
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="C11" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
@@ -1987,7 +1986,7 @@
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
       <c r="C17" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
@@ -1999,11 +1998,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="78"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="72"/>
-      <c r="R17" s="78"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2023,7 +2022,7 @@
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
       <c r="C18" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
@@ -2059,7 +2058,7 @@
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
       <c r="C19" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>

--- a/Tidsplan - Estimeret.xlsx
+++ b/Tidsplan - Estimeret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D0FA7-FFBF-4D3E-90DF-3D26C9BCB97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68139B25-A4AB-408C-8975-204101A377A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Opsætning</t>
   </si>
   <si>
-    <t>Presentation a data</t>
-  </si>
-  <si>
     <t>Datahåntering</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Metode- og teknologivalg</t>
+  </si>
+  <si>
+    <t>Presentation af data</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1519,7 @@
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
@@ -1555,7 +1555,7 @@
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
@@ -1591,7 +1591,7 @@
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="64"/>
       <c r="C6" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
@@ -1699,7 +1699,7 @@
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="64"/>
       <c r="C9" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="1"/>
@@ -1735,7 +1735,7 @@
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="64"/>
       <c r="C10" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
@@ -1770,7 +1770,7 @@
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="C11" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
@@ -1842,7 +1842,7 @@
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="64"/>
       <c r="C13" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="1"/>
@@ -1878,7 +1878,7 @@
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="64"/>
       <c r="C14" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
@@ -1986,7 +1986,7 @@
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
       <c r="C17" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
@@ -2022,7 +2022,7 @@
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
       <c r="C18" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
@@ -2058,7 +2058,7 @@
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
       <c r="C19" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
@@ -2130,7 +2130,7 @@
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="64"/>
       <c r="C21" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="1"/>
@@ -2274,7 +2274,7 @@
     <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="64"/>
       <c r="C25" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="1"/>
@@ -2382,7 +2382,7 @@
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="64"/>
       <c r="C28" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="1"/>
@@ -2418,7 +2418,7 @@
     <row r="29" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="66"/>
       <c r="C29" s="67" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="3"/>
